--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile4.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile4.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>백신업계 노벨상 '박만훈상' 얀 홈그렌 교수 등 3명 선정</t>
+    <t>AI·유튜브 전문가 되고 싶어요…"걱정마, 포스코DX가 도울게"</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>3시간전</t>
   </si>
   <si>
-    <t>9</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
